--- a/latest/564/excel/564_09_tyottomat_koulutusasteen_mukaan_vuosimuutoksella.xlsx
+++ b/latest/564/excel/564_09_tyottomat_koulutusasteen_mukaan_vuosimuutoksella.xlsx
@@ -17,10 +17,10 @@
     <t>Koulutusaste</t>
   </si>
   <si>
-    <t>2016-10</t>
-  </si>
-  <si>
-    <t>2017-10</t>
+    <t>2016-11</t>
+  </si>
+  <si>
+    <t>2017-11</t>
   </si>
   <si>
     <t>Muutos, lkm</t>
@@ -65,55 +65,55 @@
     <t>-</t>
   </si>
   <si>
-    <t>-30.9 %</t>
-  </si>
-  <si>
-    <t>-8.8 %</t>
-  </si>
-  <si>
-    <t>-15.4 %</t>
-  </si>
-  <si>
-    <t>-18.8 %</t>
-  </si>
-  <si>
-    <t>-21.5 %</t>
-  </si>
-  <si>
-    <t>-28.7 %</t>
-  </si>
-  <si>
-    <t>-16.7 %</t>
-  </si>
-  <si>
-    <t>-26.7 %</t>
-  </si>
-  <si>
-    <t>-16.6  %</t>
+    <t>-29.9 %</t>
+  </si>
+  <si>
+    <t>-8.90000000000001 %</t>
+  </si>
+  <si>
+    <t>-14.7 %</t>
+  </si>
+  <si>
+    <t>-17.3 %</t>
+  </si>
+  <si>
+    <t>-23.9 %</t>
+  </si>
+  <si>
+    <t>-27.4 %</t>
+  </si>
+  <si>
+    <t>-100 %</t>
+  </si>
+  <si>
+    <t>-30.3 %</t>
+  </si>
+  <si>
+    <t>-16.3  %</t>
   </si>
   <si>
     <t>0%</t>
   </si>
   <si>
-    <t>2.8%</t>
-  </si>
-  <si>
-    <t>19.8%</t>
-  </si>
-  <si>
-    <t>56.2%</t>
-  </si>
-  <si>
-    <t>5.3%</t>
-  </si>
-  <si>
-    <t>7.7%</t>
-  </si>
-  <si>
-    <t>5.1%</t>
-  </si>
-  <si>
-    <t>3%</t>
+    <t>2.7%</t>
+  </si>
+  <si>
+    <t>20.1%</t>
+  </si>
+  <si>
+    <t>56.6%</t>
+  </si>
+  <si>
+    <t>5.2%</t>
+  </si>
+  <si>
+    <t>7.4%</t>
+  </si>
+  <si>
+    <t>4.9%</t>
+  </si>
+  <si>
+    <t>2.9%</t>
   </si>
   <si>
     <t>100%</t>
@@ -212,13 +212,13 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>446.0</v>
+        <v>421.0</v>
       </c>
       <c r="C3" t="n">
-        <v>308.0</v>
+        <v>295.0</v>
       </c>
       <c r="D3" t="n">
-        <v>-138.0</v>
+        <v>-126.0</v>
       </c>
       <c r="E3" t="s">
         <v>17</v>
@@ -232,13 +232,13 @@
         <v>8</v>
       </c>
       <c r="B4" t="n">
-        <v>2381.0</v>
+        <v>2423.0</v>
       </c>
       <c r="C4" t="n">
-        <v>2172.0</v>
+        <v>2207.0</v>
       </c>
       <c r="D4" t="n">
-        <v>-209.0</v>
+        <v>-216.0</v>
       </c>
       <c r="E4" t="s">
         <v>18</v>
@@ -252,13 +252,13 @@
         <v>9</v>
       </c>
       <c r="B5" t="n">
-        <v>7276.0</v>
+        <v>7279.0</v>
       </c>
       <c r="C5" t="n">
-        <v>6152.0</v>
+        <v>6210.0</v>
       </c>
       <c r="D5" t="n">
-        <v>-1124.0</v>
+        <v>-1069.0</v>
       </c>
       <c r="E5" t="s">
         <v>19</v>
@@ -272,13 +272,13 @@
         <v>10</v>
       </c>
       <c r="B6" t="n">
-        <v>713.0</v>
+        <v>695.0</v>
       </c>
       <c r="C6" t="n">
-        <v>579.0</v>
+        <v>575.0</v>
       </c>
       <c r="D6" t="n">
-        <v>-134.0</v>
+        <v>-120.0</v>
       </c>
       <c r="E6" t="s">
         <v>20</v>
@@ -292,13 +292,13 @@
         <v>11</v>
       </c>
       <c r="B7" t="n">
-        <v>1076.0</v>
+        <v>1071.0</v>
       </c>
       <c r="C7" t="n">
-        <v>845.0</v>
+        <v>815.0</v>
       </c>
       <c r="D7" t="n">
-        <v>-231.0</v>
+        <v>-256.0</v>
       </c>
       <c r="E7" t="s">
         <v>21</v>
@@ -312,13 +312,13 @@
         <v>12</v>
       </c>
       <c r="B8" t="n">
-        <v>783.0</v>
+        <v>744.0</v>
       </c>
       <c r="C8" t="n">
-        <v>558.0</v>
+        <v>540.0</v>
       </c>
       <c r="D8" t="n">
-        <v>-225.0</v>
+        <v>-204.0</v>
       </c>
       <c r="E8" t="s">
         <v>22</v>
@@ -332,13 +332,13 @@
         <v>13</v>
       </c>
       <c r="B9" t="n">
-        <v>6.0</v>
+        <v>11.0</v>
       </c>
       <c r="C9" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="D9" t="n">
-        <v>-1.0</v>
+        <v>-11.0</v>
       </c>
       <c r="E9" t="s">
         <v>23</v>
@@ -352,13 +352,13 @@
         <v>14</v>
       </c>
       <c r="B10" t="n">
-        <v>453.0</v>
+        <v>462.0</v>
       </c>
       <c r="C10" t="n">
-        <v>332.0</v>
+        <v>322.0</v>
       </c>
       <c r="D10" t="n">
-        <v>-121.0</v>
+        <v>-140.0</v>
       </c>
       <c r="E10" t="s">
         <v>24</v>
@@ -372,13 +372,13 @@
         <v>15</v>
       </c>
       <c r="B11" t="n">
-        <v>13134.0</v>
+        <v>13106.0</v>
       </c>
       <c r="C11" t="n">
-        <v>10951.0</v>
+        <v>10964.0</v>
       </c>
       <c r="D11" t="n">
-        <v>-2183.0</v>
+        <v>-2142.0</v>
       </c>
       <c r="E11" t="s">
         <v>25</v>

--- a/latest/564/excel/564_09_tyottomat_koulutusasteen_mukaan_vuosimuutoksella.xlsx
+++ b/latest/564/excel/564_09_tyottomat_koulutusasteen_mukaan_vuosimuutoksella.xlsx
@@ -17,10 +17,10 @@
     <t>Koulutusaste</t>
   </si>
   <si>
-    <t>2016-11</t>
-  </si>
-  <si>
-    <t>2017-11</t>
+    <t>2016-12</t>
+  </si>
+  <si>
+    <t>2017-12</t>
   </si>
   <si>
     <t>Muutos, lkm</t>
@@ -65,52 +65,52 @@
     <t>-</t>
   </si>
   <si>
-    <t>-29.9 %</t>
-  </si>
-  <si>
-    <t>-8.90000000000001 %</t>
-  </si>
-  <si>
-    <t>-14.7 %</t>
-  </si>
-  <si>
-    <t>-17.3 %</t>
-  </si>
-  <si>
-    <t>-23.9 %</t>
+    <t>-31.8 %</t>
+  </si>
+  <si>
+    <t>-10.6 %</t>
+  </si>
+  <si>
+    <t>-16.2 %</t>
+  </si>
+  <si>
+    <t>-19 %</t>
   </si>
   <si>
     <t>-27.4 %</t>
   </si>
   <si>
+    <t>-23.4 %</t>
+  </si>
+  <si>
     <t>-100 %</t>
   </si>
   <si>
-    <t>-30.3 %</t>
-  </si>
-  <si>
-    <t>-16.3  %</t>
+    <t>-29.8 %</t>
+  </si>
+  <si>
+    <t>-17.7  %</t>
   </si>
   <si>
     <t>0%</t>
   </si>
   <si>
-    <t>2.7%</t>
-  </si>
-  <si>
-    <t>20.1%</t>
-  </si>
-  <si>
-    <t>56.6%</t>
-  </si>
-  <si>
-    <t>5.2%</t>
-  </si>
-  <si>
-    <t>7.4%</t>
-  </si>
-  <si>
-    <t>4.9%</t>
+    <t>2.5%</t>
+  </si>
+  <si>
+    <t>19.5%</t>
+  </si>
+  <si>
+    <t>57.2%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>7.5%</t>
+  </si>
+  <si>
+    <t>5.3%</t>
   </si>
   <si>
     <t>2.9%</t>
@@ -212,13 +212,13 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>421.0</v>
+        <v>447.0</v>
       </c>
       <c r="C3" t="n">
-        <v>295.0</v>
+        <v>305.0</v>
       </c>
       <c r="D3" t="n">
-        <v>-126.0</v>
+        <v>-142.0</v>
       </c>
       <c r="E3" t="s">
         <v>17</v>
@@ -232,13 +232,13 @@
         <v>8</v>
       </c>
       <c r="B4" t="n">
-        <v>2423.0</v>
+        <v>2612.0</v>
       </c>
       <c r="C4" t="n">
-        <v>2207.0</v>
+        <v>2335.0</v>
       </c>
       <c r="D4" t="n">
-        <v>-216.0</v>
+        <v>-277.0</v>
       </c>
       <c r="E4" t="s">
         <v>18</v>
@@ -252,13 +252,13 @@
         <v>9</v>
       </c>
       <c r="B5" t="n">
-        <v>7279.0</v>
+        <v>8188.0</v>
       </c>
       <c r="C5" t="n">
-        <v>6210.0</v>
+        <v>6864.0</v>
       </c>
       <c r="D5" t="n">
-        <v>-1069.0</v>
+        <v>-1324.0</v>
       </c>
       <c r="E5" t="s">
         <v>19</v>
@@ -272,13 +272,13 @@
         <v>10</v>
       </c>
       <c r="B6" t="n">
-        <v>695.0</v>
+        <v>744.0</v>
       </c>
       <c r="C6" t="n">
-        <v>575.0</v>
+        <v>603.0</v>
       </c>
       <c r="D6" t="n">
-        <v>-120.0</v>
+        <v>-141.0</v>
       </c>
       <c r="E6" t="s">
         <v>20</v>
@@ -292,13 +292,13 @@
         <v>11</v>
       </c>
       <c r="B7" t="n">
-        <v>1071.0</v>
+        <v>1239.0</v>
       </c>
       <c r="C7" t="n">
-        <v>815.0</v>
+        <v>900.0</v>
       </c>
       <c r="D7" t="n">
-        <v>-256.0</v>
+        <v>-339.0</v>
       </c>
       <c r="E7" t="s">
         <v>21</v>
@@ -312,13 +312,13 @@
         <v>12</v>
       </c>
       <c r="B8" t="n">
-        <v>744.0</v>
+        <v>830.0</v>
       </c>
       <c r="C8" t="n">
-        <v>540.0</v>
+        <v>636.0</v>
       </c>
       <c r="D8" t="n">
-        <v>-204.0</v>
+        <v>-194.0</v>
       </c>
       <c r="E8" t="s">
         <v>22</v>
@@ -352,13 +352,13 @@
         <v>14</v>
       </c>
       <c r="B10" t="n">
-        <v>462.0</v>
+        <v>497.0</v>
       </c>
       <c r="C10" t="n">
-        <v>322.0</v>
+        <v>349.0</v>
       </c>
       <c r="D10" t="n">
-        <v>-140.0</v>
+        <v>-148.0</v>
       </c>
       <c r="E10" t="s">
         <v>24</v>
@@ -372,13 +372,13 @@
         <v>15</v>
       </c>
       <c r="B11" t="n">
-        <v>13106.0</v>
+        <v>14568.0</v>
       </c>
       <c r="C11" t="n">
-        <v>10964.0</v>
+        <v>11992.0</v>
       </c>
       <c r="D11" t="n">
-        <v>-2142.0</v>
+        <v>-2576.0</v>
       </c>
       <c r="E11" t="s">
         <v>25</v>
